--- a/Proyecto_React_Carta_Gantt.xlsx
+++ b/Proyecto_React_Carta_Gantt.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoma\OneDrive\Escritorio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pablo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5EF8890D-ABAC-4256-9859-CF42403EF819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{435BD03F-5131-4BAF-A6D8-9C62EF124ECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tablas de desarrollo" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="37">
   <si>
     <t>Tarea</t>
   </si>
@@ -121,21 +121,6 @@
     <t>Presentar el proyecto y responder preguntas</t>
   </si>
   <si>
-    <t>2024-07-22</t>
-  </si>
-  <si>
-    <t>2024-07-23</t>
-  </si>
-  <si>
-    <t>2024-07-24</t>
-  </si>
-  <si>
-    <t>2024-07-25</t>
-  </si>
-  <si>
-    <t>2024-07-26</t>
-  </si>
-  <si>
     <t>Pendiente</t>
   </si>
   <si>
@@ -143,6 +128,9 @@
   </si>
   <si>
     <t>Por Finalizar</t>
+  </si>
+  <si>
+    <t>pendiente</t>
   </si>
 </sst>
 </file>
@@ -166,7 +154,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -200,6 +188,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF3E65E2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -231,7 +237,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -248,6 +254,12 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -559,20 +571,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.54296875" customWidth="1"/>
-    <col min="2" max="2" width="54.6328125" customWidth="1"/>
-    <col min="3" max="3" width="18.453125" customWidth="1"/>
-    <col min="4" max="4" width="20.453125" customWidth="1"/>
-    <col min="5" max="5" width="11.453125" customWidth="1"/>
+    <col min="1" max="1" width="40.5546875" customWidth="1"/>
+    <col min="2" max="2" width="54.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" customWidth="1"/>
+    <col min="4" max="4" width="20.44140625" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -589,242 +601,242 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
       </c>
-      <c r="C2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C2" s="8">
+        <v>45495</v>
+      </c>
+      <c r="D2" s="8">
+        <v>45495</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
-      <c r="C3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C3" s="8">
+        <v>45495</v>
+      </c>
+      <c r="D3" s="8">
+        <v>45495</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C4" s="8">
+        <v>45495</v>
+      </c>
+      <c r="D4" s="8">
+        <v>45495</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="8">
+        <v>45495</v>
+      </c>
+      <c r="D5" s="8">
+        <v>45497</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C6" s="8">
+        <v>45495</v>
+      </c>
+      <c r="D6" s="8">
+        <v>45496</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C7" s="8">
+        <v>45496</v>
+      </c>
+      <c r="D7" s="8">
+        <v>45496</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
       </c>
-      <c r="C8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C8" s="8">
+        <v>45496</v>
+      </c>
+      <c r="D8" s="8">
+        <v>45496</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>12</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
       </c>
-      <c r="C9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C9" s="8">
+        <v>45496</v>
+      </c>
+      <c r="D9" s="8">
+        <v>45496</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
       <c r="B10" t="s">
         <v>27</v>
       </c>
-      <c r="C10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C10" s="8">
+        <v>45496</v>
+      </c>
+      <c r="D10" s="8">
+        <v>45497</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>14</v>
       </c>
       <c r="B11" t="s">
         <v>28</v>
       </c>
-      <c r="C11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C11" s="8">
+        <v>45496</v>
+      </c>
+      <c r="D11" s="8">
+        <v>45497</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>15</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
       </c>
-      <c r="C12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C12" s="8">
+        <v>45496</v>
+      </c>
+      <c r="D12" s="8">
+        <v>45497</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>16</v>
       </c>
       <c r="B13" t="s">
         <v>30</v>
       </c>
-      <c r="C13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C13" s="8">
+        <v>45496</v>
+      </c>
+      <c r="D13" s="8">
+        <v>45497</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>17</v>
       </c>
       <c r="B14" t="s">
         <v>31</v>
       </c>
-      <c r="C14" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C14" s="8">
+        <v>45496</v>
+      </c>
+      <c r="D14" s="8">
+        <v>45497</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>18</v>
       </c>
       <c r="B15" t="s">
         <v>32</v>
       </c>
-      <c r="C15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" t="s">
-        <v>38</v>
+      <c r="C15" s="8">
+        <v>45496</v>
+      </c>
+      <c r="D15" s="8">
+        <v>45497</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
